--- a/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,412 +512,562 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>006106</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>景顺长城量化港股通股票</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>87.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>513900</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安CES港股通精选100ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>96.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008973</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160925</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513600</t>
+          <t>159920</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方恒生ETF</t>
+          <t>华夏恒生ETF(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.13</t>
+          <t>126.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166402</t>
+          <t>513550</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+          <t>华泰柏瑞中证港股通50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>13.63</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>513660</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>华夏沪港通恒生ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>17.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>华安CES港股通精选100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>13.27</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501309</t>
+          <t>007354</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰恒生港股通指数（LOF）</t>
+          <t>创金合信港股通量化股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007354</t>
+          <t>513600</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票A</t>
+          <t>南方恒生ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007357</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信港股通量化股票C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>513550</t>
+          <t>513990</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通50ETF</t>
+          <t>招商上证港股通ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513660</t>
+          <t>160925</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏沪港通恒生ETF</t>
+          <t>大成中华沪深港300指数（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.04</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513900</t>
+          <t>162416</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安CES港股通精选100ETF</t>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>96.06</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>513990</t>
+          <t>501309</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商上证港股通ETF</t>
+          <t>国泰恒生港股通指数（LOF）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159920</t>
+          <t>166402</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华夏恒生ETF(QDII)</t>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160925</t>
+          <t>007357</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
+          <t>创金合信港股通量化股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008973</t>
+          <t>005707</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成中华沪深港300指数(LOF)C</t>
+          <t>富国港股通量化精选股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005707</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国港股通量化精选股票</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>162416</t>
+          <t>008973</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
+          <t>大成中华沪深港300指数(LOF)C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
@@ -1872,12 +1872,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159920</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏恒生ETF(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.2128</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.37</v>
       </c>
     </row>
     <row r="3">
@@ -541,530 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0237</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9473</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513660</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏沪港通恒生ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7998</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>513600</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方恒生ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1933</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1298</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162416</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝港股通恒生香港35指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160925</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>513990</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商上证港股通ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>513900</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安CES港股通精选100ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166402</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501309</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰恒生港股通指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008973</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成中华沪深港300指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.609999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1309,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1349,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.37</v>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1387,530 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.609999999999999</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
+++ b/数据整理/stocks/港股/00005-汇丰控股有限公司.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>20.37</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>9.609999999999999</v>
       </c>
     </row>
@@ -515,6 +532,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>517000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159711</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>517780</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛中华交易服务沪深港300ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>517030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深300ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517170</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证沪港深500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008973</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成中华沪深港300指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1292,7 +2541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
